--- a/eRation DB Design.xlsx
+++ b/eRation DB Design.xlsx
@@ -4,11 +4,11 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Schema"/>
-    <sheet r:id="rId2" sheetId="2" name="Sheet3"/>
+    <sheet r:id="rId2" sheetId="2" name="Services"/>
     <sheet r:id="rId3" sheetId="3" name="Example"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t>users_table</t>
   </si>
@@ -183,16 +183,7 @@
     <t>users_table - FK</t>
   </si>
   <si>
-    <t>USER SPLIT</t>
-  </si>
-  <si>
-    <t>Admin Service</t>
-  </si>
-  <si>
-    <t>Customer Service</t>
-  </si>
-  <si>
-    <t>ShopKeeper Service</t>
+    <t/>
   </si>
   <si>
     <t>User_ID</t>
@@ -242,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,12 +263,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -518,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,10 +553,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
@@ -619,13 +604,22 @@
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -656,6 +650,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -962,713 +959,713 @@
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="37" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="37" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="37" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="37" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="37" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="37" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="37" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="37" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="37" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="37" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="37" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="37" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="37" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="37" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="37" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="37" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="37" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="40" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="40" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="50" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="50" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="50" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="50" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="50" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="50" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="50" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="50" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="50" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="50" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="50" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="50" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="50" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="50" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="50" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="40" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="40" width="15.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="41" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="5"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="41" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="5"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="38" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="5"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="41" t="s">
         <v>33</v>
       </c>
       <c r="T1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
-        <v>44</v>
+      <c r="F3" s="44"/>
+      <c r="G3" s="49" t="s">
+        <v>37</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="H3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="N3" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="44"/>
+      <c r="S3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="43" t="s">
+      <c r="N4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="42" t="s">
-        <v>40</v>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="49" t="s">
+        <v>11</v>
       </c>
-      <c r="T2" s="43" t="s">
-        <v>60</v>
+      <c r="T4" s="46" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="45" t="s">
-        <v>4</v>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="48" t="s">
+        <v>6</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>62</v>
+      <c r="B5" s="46" t="s">
+        <v>59</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="46" t="s">
-        <v>37</v>
+      <c r="C5" s="44"/>
+      <c r="D5" s="48" t="s">
+        <v>45</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="43" t="s">
+      <c r="E5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="45" t="s">
-        <v>4</v>
+      <c r="F5" s="44"/>
+      <c r="G5" s="48" t="s">
+        <v>38</v>
       </c>
-      <c r="Q3" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="45" t="s">
+      <c r="H5" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="46" t="s">
-        <v>11</v>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="48" t="s">
+        <v>36</v>
       </c>
-      <c r="N4" s="43" t="s">
-        <v>64</v>
+      <c r="T5" s="46" t="s">
+        <v>66</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="46" t="s">
-        <v>11</v>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="48" t="s">
+        <v>7</v>
       </c>
-      <c r="T4" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="45" t="s">
-        <v>38</v>
+      <c r="C6" s="44"/>
+      <c r="D6" s="48" t="s">
+        <v>46</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="E6" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="45" t="s">
-        <v>36</v>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="48" t="s">
+        <v>8</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="B7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
     </row>
@@ -1693,18 +1690,18 @@
   </sheetPr>
   <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="37" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="37" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="37" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="40" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="40" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="40" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1800,7 +1797,7 @@
       <c r="H7" s="32"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="32"/>
@@ -1822,34 +1819,34 @@
       <c r="H9" s="32"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="33" t="s">
-        <v>56</v>
+      <c r="A10" s="38" t="s">
+        <v>55</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>0</v>
+      <c r="B10" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
-        <v>57</v>
+      <c r="D10" s="38" t="s">
+        <v>55</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>0</v>
+      <c r="E10" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="33" t="s">
-        <v>58</v>
+      <c r="G10" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="H10" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="35"/>
-      <c r="B11" s="34" t="s">
-        <v>43</v>
+      <c r="B11" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="35"/>
-      <c r="E11" s="34" t="s">
-        <v>43</v>
+      <c r="E11" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="35"/>
@@ -1857,13 +1854,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="35"/>
-      <c r="B12" s="34" t="s">
-        <v>1</v>
+      <c r="B12" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="34" t="s">
-        <v>32</v>
+      <c r="E12" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="35"/>
@@ -1871,13 +1868,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="35"/>
-      <c r="B13" s="34" t="s">
-        <v>32</v>
+      <c r="B13" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="34" t="s">
-        <v>1</v>
+      <c r="E13" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="35"/>
@@ -1885,8 +1882,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="35"/>
-      <c r="B14" s="34" t="s">
-        <v>31</v>
+      <c r="B14" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -1897,8 +1894,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="35"/>
-      <c r="B15" s="34" t="s">
-        <v>2</v>
+      <c r="B15" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -1909,8 +1906,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="36"/>
-      <c r="B16" s="34" t="s">
-        <v>33</v>
+      <c r="B16" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -3901,7 +3898,7 @@
     <col min="26" max="26" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4036,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -4187,7 +4184,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4221,7 +4218,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="16"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4255,7 +4252,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4283,7 +4280,7 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -4311,7 +4308,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -4453,7 +4450,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8">
         <v>2</v>
       </c>
@@ -4683,7 +4680,7 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="8">
         <v>7</v>
       </c>
@@ -4763,7 +4760,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="16"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4827,7 +4824,7 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
